--- a/Tóth Bence/calculator1/TeszteljükLe másolata.xlsx
+++ b/Tóth Bence/calculator1/TeszteljükLe másolata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\B.Zs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toth.bence\Desktop\github\Eg_12K\Tóth Bence\calculator1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F963E-E602-46C8-897E-8A4AB5D7CB2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6CC348-71BA-4D09-82EA-77E0787296A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="272">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -1240,7 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,10 +1334,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1414,7 +1415,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1752,7 +1753,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -2299,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2362,7 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2439,7 +2440,7 @@
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2465,7 +2466,7 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2491,7 +2492,7 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2517,7 +2518,7 @@
       <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="12">
@@ -2543,7 +2544,7 @@
       <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="12">
@@ -2569,7 +2570,7 @@
       <c r="F10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12">
@@ -2595,7 +2596,7 @@
       <c r="F11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2621,14 +2622,18 @@
       <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3629,6 +3634,7 @@
     <hyperlink ref="G10" r:id="rId9" xr:uid="{E93E648F-3D1E-45D6-BC9E-189D01A61767}"/>
     <hyperlink ref="G11" r:id="rId10" xr:uid="{2AC7DD84-5BD2-4CD0-AD67-555C179FE760}"/>
     <hyperlink ref="G12" r:id="rId11" xr:uid="{AFBA90B3-03A9-4E17-8ECD-F240E8C60BD4}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{329AB21F-5A75-4694-A883-BA638308FB4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -31842,7 +31848,9 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31851,7 +31859,7 @@
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31877,7 +31885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -31903,7 +31911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -31929,7 +31937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -31948,14 +31956,14 @@
       <c r="F4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="59" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -31974,14 +31982,14 @@
       <c r="F5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="59" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -32000,14 +32008,14 @@
       <c r="F6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="59" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2</v>
       </c>
@@ -32026,14 +32034,14 @@
       <c r="F7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="59" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>2</v>
       </c>
@@ -32052,7 +32060,7 @@
       <c r="F8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="59" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -32080,7 +32088,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32090,7 +32100,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -32101,7 +32111,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="25" t="s">
         <v>72</v>
       </c>
@@ -32110,7 +32120,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="25" t="s">
         <v>74</v>
       </c>
@@ -32119,7 +32129,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="25" t="s">
         <v>76</v>
       </c>
@@ -32128,7 +32138,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -32139,7 +32149,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="25" t="s">
         <v>81</v>
       </c>
@@ -32148,7 +32158,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="25" t="s">
         <v>83</v>
       </c>
@@ -32157,7 +32167,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -32168,7 +32178,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="25" t="s">
         <v>88</v>
       </c>
@@ -32177,7 +32187,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -32188,35 +32198,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="30"/>
       <c r="C14" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
@@ -32225,7 +32235,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="25" t="s">
         <v>98</v>
       </c>
@@ -32234,7 +32244,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
